--- a/Vysledek.xlsx
+++ b/Vysledek.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="B2:B2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -447,9 +447,101 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Hmotny majetek</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Pozemky</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>Budovy</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>Stroje</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Ostatní</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
-      <c r="B2" t="n">
+      <c r="B2" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="0" t="n">
         <v>50</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>5020</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>61857</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="n">
+        <v>72221</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>989</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>957</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="0" t="n">
+        <v>72489</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6087</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1063</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/Vysledek.xlsx
+++ b/Vysledek.xlsx
@@ -468,7 +468,7 @@
           <t>Stroje</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>Ostatní</t>
         </is>
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="B2" s="0" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>55</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -493,55 +493,55 @@
         <v>50</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5020</v>
+        <v>7709</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>61857</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="n">
-        <v>72221</v>
+        <v>68085</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>55</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>989</v>
+        <v>2751</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="0" t="n">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>957</v>
+        <v>1375</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="n">
-        <v>72489</v>
+        <v>68235</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>6087</v>
+        <v>9194</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1063</v>
+        <v>2931</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
